--- a/poi-examples-teiid/file/names.xlsx
+++ b/poi-examples-teiid/file/names.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="173" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="173"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -60,30 +59,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +76,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -103,80 +84,329 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C7" activeCellId="0" pane="topLeft" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -185,56 +415,234 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
